--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3656719.665516691</v>
+        <v>3649702.650624981</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>556995.4603259403</v>
+        <v>521904.8980496858</v>
       </c>
     </row>
     <row r="8">
@@ -664,19 +664,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>18.05585288874229</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>203.5933316365559</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646389</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>104.5529353109706</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>134.257450437519</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>203.3253808124157</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>85.87170836083649</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.94036353859026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>252.5959118509864</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>215.0497352822186</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>79.38395740401265</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>22.62632676293185</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>154.6220812879155</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>91.09720239620631</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>207.5428010623604</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U22" t="n">
-        <v>161.817511795895</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2371,10 +2371,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>101.0041688483413</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>215.1560863683326</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2769,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>62.55231724873133</v>
       </c>
       <c r="V28" t="n">
-        <v>135.4510777116283</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>179.6071482913867</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>188.815423495402</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>101.1634376464994</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385027</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>64.34190763938432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>104.7919727697741</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.90099270127047</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>198.9945488676097</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1019.519018857857</v>
+        <v>1341.294330781294</v>
       </c>
       <c r="C2" t="n">
-        <v>650.5565019174453</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D2" t="n">
-        <v>650.5565019174453</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E2" t="n">
-        <v>650.5565019174453</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>239.5705971278377</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>225.6471930664287</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>2491.499261082307</v>
       </c>
       <c r="W2" t="n">
-        <v>2169.72394915887</v>
+        <v>2491.499261082307</v>
       </c>
       <c r="X2" t="n">
-        <v>1796.25819089779</v>
+        <v>2118.033502821228</v>
       </c>
       <c r="Y2" t="n">
-        <v>1406.118858921979</v>
+        <v>1727.894170845416</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
         <v>665.1105362747051</v>
@@ -4406,34 +4406,34 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073964</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326646</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C4" t="n">
-        <v>156.7517573047577</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>444.9563809276031</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>444.9563809276031</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>444.9563809276031</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629043</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>882.8926947117852</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2330.329327562361</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1999.266440218791</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1646.497784948677</v>
+        <v>2491.769918480429</v>
       </c>
       <c r="X5" t="n">
-        <v>1273.032026687597</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="Y5" t="n">
-        <v>882.8926947117852</v>
+        <v>2118.304160219349</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
         <v>201.8560754027576</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>261.3917961488083</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>261.3917961488083</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>261.3917961488083</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>261.3917961488083</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1628.293017861605</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C8" t="n">
-        <v>1259.330500921194</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>1259.330500921194</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>873.5422483229495</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>462.5563435333419</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2479.927136187699</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.358616186807</v>
+        <v>2127.158480917584</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.892857925727</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="Y8" t="n">
-        <v>2014.892857925727</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="9">
@@ -4889,16 +4889,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>484.4236418782191</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>484.4236418782191</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>484.4236418782191</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>484.4236418782191</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>337.5336943803087</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>337.5336943803087</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>179.7853218128388</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5035,7 +5035,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
@@ -5044,7 +5044,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,10 +5059,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5074,19 +5074,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1120.26893587578</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1440.604255405482</v>
+        <v>1778.261399527878</v>
       </c>
       <c r="N12" t="n">
-        <v>1785.124911043099</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O12" t="n">
-        <v>2033.878325127062</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P12" t="n">
         <v>2554.178946862809</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632138</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1141.200876391121</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="V13" t="n">
-        <v>1141.200876391121</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W13" t="n">
-        <v>1141.200876391121</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X13" t="n">
-        <v>1141.200876391121</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y13" t="n">
-        <v>1141.200876391121</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
@@ -5281,25 +5281,25 @@
         <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5311,13 +5311,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5357,22 +5357,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>511.6675616579997</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L15" t="n">
-        <v>741.6306675263488</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M15" t="n">
-        <v>1509.99881391881</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N15" t="n">
-        <v>1854.519469556428</v>
+        <v>2025.317482043085</v>
       </c>
       <c r="O15" t="n">
-        <v>2103.272883640391</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P15" t="n">
         <v>2623.573505376138</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>515.353611783239</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C16" t="n">
-        <v>515.353611783239</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D16" t="n">
-        <v>515.353611783239</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>515.353611783239</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>515.353611783239</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
@@ -5445,7 +5445,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247865</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>964.1357418247865</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>964.1357418247865</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>736.1461909267691</v>
+        <v>573.668597370829</v>
       </c>
       <c r="Y16" t="n">
-        <v>515.353611783239</v>
+        <v>573.668597370829</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5554,7 +5554,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>388.8958536704857</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L18" t="n">
-        <v>618.8589595388348</v>
+        <v>707.9887027519524</v>
       </c>
       <c r="M18" t="n">
-        <v>939.1942790685366</v>
+        <v>1476.356849144414</v>
       </c>
       <c r="N18" t="n">
-        <v>1364.414563824402</v>
+        <v>1476.356849144414</v>
       </c>
       <c r="O18" t="n">
-        <v>2033.878325127062</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028587</v>
@@ -5673,7 +5673,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
@@ -5682,7 +5682,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609669</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>986.0022165609669</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>696.5850465240062</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>486.9458535317229</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5740,22 +5740,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5770,34 +5770,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>263.5382936126482</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>619.396889022213</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1387.765035414674</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N21" t="n">
-        <v>2192.176613678825</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>800.6837097077201</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>545.9992215018333</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5980,40 +5980,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>550.0023305088837</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>550.0023305088837</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1318.370476901345</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N24" t="n">
-        <v>2122.782055165496</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6177,22 +6177,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>898.7925182488384</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V25" t="n">
-        <v>644.1080300429516</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W25" t="n">
-        <v>644.1080300429516</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X25" t="n">
-        <v>426.7786498729187</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>426.7786498729187</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6214,16 +6214,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6235,22 +6235,22 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6311,19 +6311,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>904.39166832551</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1224.726987855212</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1569.24764349283</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2145.820610447073</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>355.6416303362487</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="C28" t="n">
-        <v>355.6416303362487</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D28" t="n">
-        <v>355.6416303362487</v>
+        <v>503.5547239186419</v>
       </c>
       <c r="E28" t="n">
         <v>355.6416303362487</v>
@@ -6381,7 +6381,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>1124.736998198178</v>
       </c>
       <c r="V28" t="n">
-        <v>873.0483512712267</v>
+        <v>1124.736998198178</v>
       </c>
       <c r="W28" t="n">
-        <v>583.631181234266</v>
+        <v>835.3198281612173</v>
       </c>
       <c r="X28" t="n">
-        <v>355.6416303362487</v>
+        <v>835.3198281612173</v>
       </c>
       <c r="Y28" t="n">
-        <v>355.6416303362487</v>
+        <v>835.3198281612173</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822457</v>
@@ -6463,13 +6463,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6478,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>263.5382936126483</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>506.9309493198496</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1275.299095712311</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>2079.710673976462</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>434.3285960683721</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404652</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6621,16 +6621,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119729</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119729</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1206.419805209237</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>1206.419805209237</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V31" t="n">
-        <v>951.73531700335</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W31" t="n">
-        <v>662.3181469663895</v>
+        <v>1197.118517124372</v>
       </c>
       <c r="X31" t="n">
-        <v>434.3285960683721</v>
+        <v>969.128966226355</v>
       </c>
       <c r="Y31" t="n">
-        <v>434.3285960683721</v>
+        <v>748.3363870828249</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,37 +6685,37 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6724,7 +6724,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1086.151323163967</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1854.519469556428</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>1854.519469556428</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
         <v>2623.573505376138</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>973.0255547109413</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>804.0893717830344</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>653.9727323706986</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>973.0255547109413</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>973.0255547109413</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>973.0255547109413</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>973.0255547109413</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>973.0255547109413</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701563</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1163.495507227045</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1483.830826756747</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>1828.351482394365</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>972.2646934632138</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1387.841167119728</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>1387.841167119728</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>1387.841167119728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7189,37 +7189,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>263.5382936126483</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>877.4353633695372</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1197.770682899239</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>1542.291338536857</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2211.755099839516</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>879.5496456007323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1281.990689574502</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1281.990689574502</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1281.990689574502</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1281.990689574502</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>1281.990689574502</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1281.990689574502</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>1061.198110430972</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
@@ -7408,13 +7408,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7426,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606512</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
-        <v>2056.693778606512</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>732.358329063101</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.210845262961</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>1075.210845262961</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>785.7936752260005</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>785.7936752260005</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>785.7936752260005</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,40 +7633,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>877.4353633695368</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M45" t="n">
-        <v>1645.803509761998</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N45" t="n">
-        <v>2450.215088026149</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1097.991665657687</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1097.991665657687</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>843.3071774518004</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>843.3071774518004</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>615.317626553783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>138.7821744385612</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9731,13 +9731,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9968,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10205,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10439,16 +10439,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10679,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10916,13 +10916,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11150,16 +11150,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>263.6110256356455</v>
+        <v>125.0667464684375</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>11.87148717546211</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>134.6124529928308</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>18.16685432667674</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U22" t="n">
-        <v>124.4198406026824</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24417,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>185.233183550236</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>10.5535690207046</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>223.685035149846</v>
       </c>
       <c r="V28" t="n">
-        <v>116.6865656121997</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24891,22 +24891,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>41.9404127670025</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>97.70757484118897</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>185.0739147520779</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>154.2427457127105</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>93.12883721382917</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>126.9309874806668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>22.55301219077953</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>684300.8545409908</v>
+        <v>684300.8545409907</v>
       </c>
     </row>
     <row r="7">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312476</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="F2" t="n">
         <v>684300.8545409905</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>684300.8545409907</v>
+      </c>
+      <c r="H2" t="n">
         <v>684300.8545409904</v>
       </c>
-      <c r="G2" t="n">
-        <v>684300.8545409909</v>
-      </c>
-      <c r="H2" t="n">
-        <v>684300.8545409907</v>
-      </c>
       <c r="I2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409905</v>
       </c>
       <c r="J2" t="n">
-        <v>684300.8545409908</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="K2" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="L2" t="n">
         <v>684300.8545409905</v>
       </c>
       <c r="M2" t="n">
-        <v>684300.85454099</v>
+        <v>684300.8545409905</v>
       </c>
       <c r="N2" t="n">
+        <v>684300.8545409907</v>
+      </c>
+      <c r="O2" t="n">
         <v>684300.8545409904</v>
       </c>
-      <c r="O2" t="n">
-        <v>684300.8545409903</v>
-      </c>
       <c r="P2" t="n">
-        <v>684300.854540991</v>
+        <v>684300.8545409907</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>2.48295464189141e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758218</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
@@ -26441,25 +26441,25 @@
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="K4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="K4" t="n">
-        <v>787.7936905758697</v>
-      </c>
       <c r="L4" t="n">
-        <v>787.7936905758064</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905757972</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758309</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758697</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26481,13 +26481,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26499,19 +26499,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93474.54782732511</v>
+        <v>-93474.54782732477</v>
       </c>
       <c r="C6" t="n">
-        <v>496493.3313872191</v>
+        <v>496493.3313872197</v>
       </c>
       <c r="D6" t="n">
-        <v>496493.3313872193</v>
+        <v>496493.3313872196</v>
       </c>
       <c r="E6" t="n">
-        <v>66365.6984248019</v>
+        <v>65391.10716507991</v>
       </c>
       <c r="F6" t="n">
-        <v>591525.734901698</v>
+        <v>590551.1436419764</v>
       </c>
       <c r="G6" t="n">
-        <v>591525.7349016984</v>
+        <v>590551.1436419765</v>
       </c>
       <c r="H6" t="n">
-        <v>591525.7349016983</v>
+        <v>590551.1436419763</v>
       </c>
       <c r="I6" t="n">
-        <v>591525.7349016977</v>
+        <v>590551.1436419764</v>
       </c>
       <c r="J6" t="n">
-        <v>415102.5157091054</v>
+        <v>414127.9244493832</v>
       </c>
       <c r="K6" t="n">
-        <v>591525.734901698</v>
+        <v>590551.1436419763</v>
       </c>
       <c r="L6" t="n">
-        <v>591525.7349016981</v>
+        <v>590551.1436419764</v>
       </c>
       <c r="M6" t="n">
-        <v>456724.7196678604</v>
+        <v>455750.1284081392</v>
       </c>
       <c r="N6" t="n">
-        <v>591525.7349016978</v>
+        <v>590551.1436419765</v>
       </c>
       <c r="O6" t="n">
-        <v>591525.7349016978</v>
+        <v>590551.1436419763</v>
       </c>
       <c r="P6" t="n">
-        <v>591525.7349016989</v>
+        <v>590551.1436419765</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26764,22 +26764,22 @@
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26819,16 +26819,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.688425465021952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990177</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>305.8669198756149</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>124.158926833579</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>46.83478528866308</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>107.5926036390483</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>116.9667170707703</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>145.9155879049973</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>93.9602718211008</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>159.6442898135045</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>161.1882581698086</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>112.7025231879163</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>55.58166438832558</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-7.952361629995513e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-5.688425465021952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30237,13 +30237,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-9.723500310376651e-15</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-5.688425465021952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31375,31 +31375,31 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N6" t="n">
-        <v>167.900586832999</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>56.98116194942338</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958058</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,16 +31840,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>386.0590603056891</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>171.3135836203299</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -31858,7 +31858,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>124.0118262500141</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>168.5445774098388</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>258.0312579449292</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>81.51477688711873</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,19 +32551,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>127.1671611527431</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32572,16 +32572,16 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32794,13 +32794,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565527</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -33031,22 +33031,22 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>331.1308614851325</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,43 +33259,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>13.56520185742642</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813464</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,37 +33423,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>183.5956109479361</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,37 +33660,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
-        <v>26.43231026471051</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,37 +33897,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>231.4898261851222</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,43 +34207,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
-        <v>136.851348557892</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,16 +34386,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,37 +34447,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>317.7057569191812</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>618.3450258292741</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>494.8846134483115</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
@@ -35506,7 +35506,7 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>250.6356242882337</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
@@ -35737,13 +35737,13 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>419.8106522421239</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>490.3172234685142</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>429.515439147339</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>359.4531266763281</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>289.3576130265005</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36679,22 +36679,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>582.3969363174176</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>245.8511673810114</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>415.881576471521</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>277.6983850969956</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>415.9781874107292</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
-        <v>388.1174233901771</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>175.1095124747368</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3649702.650624981</v>
+        <v>3654641.913474012</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>521904.8980496858</v>
+        <v>637712.1878378006</v>
       </c>
     </row>
     <row r="8">
@@ -664,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -676,7 +676,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>72.08339173735126</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>203.5933316365559</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>59.35297612243384</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>104.5529353109706</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>99.4495018699665</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>203.3253808124157</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>85.87170836083649</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>218.3734398702023</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>215.0497352822186</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>223.1498336210772</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>161.1706059301398</v>
+        <v>253.1488561805826</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273999</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>122.65197883716</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>91.09720239620631</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2058,16 +2058,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>89.357893532736</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750035</v>
+        <v>206.8064269214864</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2371,7 +2371,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U25" t="n">
-        <v>101.0041688483413</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>117.6385581179205</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>62.55231724873133</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>96.84207451769373</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>188.815423495402</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634824</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.64843562452447</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404428</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>143.2925104849749</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1341.294330781294</v>
+        <v>924.4350995402963</v>
       </c>
       <c r="C2" t="n">
-        <v>972.3318138408822</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D2" t="n">
-        <v>614.0661152341316</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2624.337584212818</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2405.70291718488</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2405.70291718488</v>
       </c>
       <c r="V2" t="n">
-        <v>2491.499261082307</v>
+        <v>2074.64002984131</v>
       </c>
       <c r="W2" t="n">
-        <v>2491.499261082307</v>
+        <v>2074.64002984131</v>
       </c>
       <c r="X2" t="n">
-        <v>2118.033502821228</v>
+        <v>1701.17427158023</v>
       </c>
       <c r="Y2" t="n">
-        <v>1727.894170845416</v>
+        <v>1311.034939604418</v>
       </c>
     </row>
     <row r="3">
@@ -4406,7 +4406,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4427,13 +4427,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073964</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>295.8809182883534</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>295.8809182883534</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>295.8809182883534</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>295.8809182883534</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>295.8809182883534</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S4" t="n">
-        <v>444.9563809276031</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="T4" t="n">
-        <v>444.9563809276031</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="U4" t="n">
-        <v>444.9563809276031</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="V4" t="n">
-        <v>190.2718927217162</v>
+        <v>295.8809182883534</v>
       </c>
       <c r="W4" t="n">
-        <v>190.2718927217162</v>
+        <v>295.8809182883534</v>
       </c>
       <c r="X4" t="n">
-        <v>190.2718927217162</v>
+        <v>295.8809182883534</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.2718927217162</v>
+        <v>295.8809182883534</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2118.304160219349</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>2491.769918480429</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X5" t="n">
-        <v>2118.304160219349</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y5" t="n">
-        <v>2118.304160219349</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
@@ -4655,16 +4655,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9727148150933</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
         <v>351.9727148150933</v>
@@ -4764,13 +4764,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694736</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
         <v>1363.553390680693</v>
@@ -4801,55 +4801,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2479.927136187699</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2127.158480917584</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>1753.692722656504</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y8" t="n">
-        <v>1363.553390680693</v>
+        <v>2697.149091018223</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,22 +5053,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M12" t="n">
-        <v>1778.261399527878</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N12" t="n">
-        <v>2122.782055165496</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.2699138005285</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C13" t="n">
         <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1336.117678709276</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V13" t="n">
-        <v>1336.117678709276</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W13" t="n">
-        <v>1046.700508672316</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X13" t="n">
-        <v>818.7109577742983</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y13" t="n">
-        <v>597.9183786307682</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,49 +5263,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181233</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>452.5377573864724</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1220.905903778934</v>
+        <v>1808.531915014687</v>
       </c>
       <c r="N15" t="n">
-        <v>2025.317482043085</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="O15" t="n">
-        <v>2440.930027762787</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>392.0201325405893</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="C16" t="n">
-        <v>392.0201325405893</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286132</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>573.668597370829</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y16" t="n">
-        <v>573.668597370829</v>
+        <v>221.1079791745888</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5512,22 +5512,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5539,28 +5539,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181233</v>
+        <v>389.2010503107778</v>
       </c>
       <c r="L18" t="n">
-        <v>707.9887027519524</v>
+        <v>1003.098120067666</v>
       </c>
       <c r="M18" t="n">
-        <v>1476.356849144414</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="N18" t="n">
-        <v>1476.356849144414</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O18" t="n">
-        <v>2145.820610447073</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>584.7466045204288</v>
       </c>
     </row>
     <row r="20">
@@ -5731,13 +5731,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
         <v>904.3190116155888</v>
@@ -5752,10 +5752,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5767,13 +5767,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5831,10 +5831,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
         <v>1288.32563221405</v>
@@ -5843,16 +5843,16 @@
         <v>2056.693778606511</v>
       </c>
       <c r="N21" t="n">
-        <v>2623.573505376138</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5910,7 +5910,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
@@ -5919,7 +5919,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,31 +5928,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028587</v>
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6004,37 +6004,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6065,13 +6065,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
         <v>1288.32563221405</v>
@@ -6080,7 +6080,7 @@
         <v>2056.693778606511</v>
       </c>
       <c r="N24" t="n">
-        <v>2623.573505376138</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="O24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>862.1113288466635</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>607.4268406407766</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>318.0096706038159</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
         <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6217,61 +6217,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6305,16 +6305,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
         <v>2623.573505376138</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.6713633309776</v>
+        <v>531.1091870201135</v>
       </c>
       <c r="C28" t="n">
-        <v>653.6713633309776</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D28" t="n">
-        <v>503.5547239186419</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E28" t="n">
-        <v>355.6416303362487</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6393,7 +6393,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>1124.736998198178</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V28" t="n">
-        <v>1124.736998198178</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="W28" t="n">
-        <v>835.3198281612173</v>
+        <v>531.1091870201135</v>
       </c>
       <c r="X28" t="n">
-        <v>835.3198281612173</v>
+        <v>531.1091870201135</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3198281612173</v>
+        <v>531.1091870201135</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6478,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
         <v>1288.32563221405</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>566.6879222525852</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C31" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U31" t="n">
-        <v>1387.841167119728</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>1387.841167119728</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>1197.118517124372</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>969.128966226355</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y31" t="n">
-        <v>748.3363870828249</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,37 +6685,37 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6724,28 +6724,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="33">
@@ -6776,13 +6776,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
         <v>1288.32563221405</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>324.384017443268</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735078</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
@@ -6952,13 +6952,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7004,28 +7004,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
         <v>2623.573505376138</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,31 +7113,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,13 +7162,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7192,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,28 +7241,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
         <v>2623.573505376138</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,28 +7350,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X40" t="n">
         <v>97.21709146028584</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7426,13 +7426,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7478,28 +7478,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
         <v>2623.573505376138</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,31 +7587,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028584</v>
@@ -7663,13 +7663,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,22 +7730,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>334.288126757867</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9020,10 +9020,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9491,13 +9491,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>167.6539271707876</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9728,10 +9728,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>125.0667464684375</v>
+        <v>33.08849621799479</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>22.76906918577127</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23706,7 +23706,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>134.6124529928308</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>162.779749791092</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338571</v>
+        <v>14.74113413690284</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U25" t="n">
-        <v>185.233183550236</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>49.60826298070735</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>223.685035149846</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>124.7054865406955</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>97.70757484118897</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388531</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>75.26883114644286</v>
       </c>
     </row>
     <row r="38">
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25836,16 +25836,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>82.39383318338517</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>108.8451328388531</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409908</v>
       </c>
     </row>
     <row r="7">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312476</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="F2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="G2" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409909</v>
       </c>
       <c r="H2" t="n">
         <v>684300.8545409904</v>
       </c>
       <c r="I2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="J2" t="n">
         <v>684300.8545409905</v>
-      </c>
-      <c r="J2" t="n">
-        <v>684300.8545409903</v>
       </c>
       <c r="K2" t="n">
         <v>684300.8545409904</v>
@@ -26346,16 +26346,16 @@
         <v>684300.8545409905</v>
       </c>
       <c r="M2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="N2" t="n">
         <v>684300.8545409905</v>
       </c>
-      <c r="N2" t="n">
-        <v>684300.8545409907</v>
-      </c>
       <c r="O2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="P2" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409903</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758218</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759103</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758695</v>
@@ -26444,10 +26444,10 @@
         <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758064</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905757878</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758694</v>
@@ -26459,7 +26459,7 @@
         <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26469,37 +26469,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93474.54782732477</v>
+        <v>-93474.54782732511</v>
       </c>
       <c r="C6" t="n">
-        <v>496493.3313872197</v>
+        <v>496493.3313872195</v>
       </c>
       <c r="D6" t="n">
-        <v>496493.3313872196</v>
+        <v>496493.3313872191</v>
       </c>
       <c r="E6" t="n">
-        <v>65391.10716507991</v>
+        <v>66268.23929882962</v>
       </c>
       <c r="F6" t="n">
-        <v>590551.1436419764</v>
+        <v>591428.2757757258</v>
       </c>
       <c r="G6" t="n">
-        <v>590551.1436419765</v>
+        <v>591428.2757757263</v>
       </c>
       <c r="H6" t="n">
-        <v>590551.1436419763</v>
+        <v>591428.2757757257</v>
       </c>
       <c r="I6" t="n">
-        <v>590551.1436419764</v>
+        <v>591428.2757757258</v>
       </c>
       <c r="J6" t="n">
-        <v>414127.9244493832</v>
+        <v>415005.0565831328</v>
       </c>
       <c r="K6" t="n">
-        <v>590551.1436419763</v>
+        <v>591428.275775726</v>
       </c>
       <c r="L6" t="n">
-        <v>590551.1436419764</v>
+        <v>591428.275775726</v>
       </c>
       <c r="M6" t="n">
-        <v>455750.1284081392</v>
+        <v>456627.2605418885</v>
       </c>
       <c r="N6" t="n">
-        <v>590551.1436419765</v>
+        <v>591428.275775726</v>
       </c>
       <c r="O6" t="n">
-        <v>590551.1436419763</v>
+        <v>591428.2757757256</v>
       </c>
       <c r="P6" t="n">
-        <v>590551.1436419765</v>
+        <v>591428.2757757257</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26816,10 +26816,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>102.3323210716203</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>124.158926833579</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>107.9568261366171</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>107.5926036390483</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>307.4265438717449</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>145.9155879049973</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>93.9602718211008</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>164.3604017932783</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>112.7025231879163</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551381</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-1.061081734498856e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>139.432625713487</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31375,7 +31375,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>86.43447689993462</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31612,7 +31612,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576419</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>35.71704454958058</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,22 +31840,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>171.3135836203299</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>208.1209162056323</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,22 +32077,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>327.9808972302433</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>168.5445774098388</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32101,13 +32101,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,16 +32253,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32317,13 +32317,13 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>168.3094937299541</v>
       </c>
       <c r="L18" t="n">
-        <v>258.0312579449292</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -32335,16 +32335,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,34 +32548,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,25 +32785,25 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>321.3397097835</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565527</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,22 +33022,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,19 +33259,19 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
         <v>224.6051223555648</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,19 +33496,19 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
         <v>224.6051223555648</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,22 +33733,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540871</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,22 +33970,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>392.6063366508803</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,22 +34207,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>323.920986939094</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,19 +35023,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>494.8846134483115</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>556.1215784658525</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>651.5519270582249</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>419.8106522421239</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>294.9332917681737</v>
       </c>
       <c r="L18" t="n">
-        <v>490.3172234685142</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>572.6057846157851</v>
+        <v>36.31221508745429</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>572.6057846157851</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004662</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004662</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>740.6069989111005</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
